--- a/resources.xlsx
+++ b/resources.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>动作莹豇岍峁崿多好</t>
+  </si>
+  <si>
+    <t>简历模板表格模板50个</t>
+  </si>
+  <si>
+    <t>伏脂襁襦渝璇璜洞座</t>
   </si>
 </sst>
 </file>
@@ -1035,9 +1041,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1361,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1484,7 +1493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" ht="28" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" ht="28" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" ht="28" spans="1:3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1660,7 +1669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" ht="28" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1880,7 +1889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" ht="28" spans="1:3">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="48" ht="28" spans="1:3">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1946,7 +1955,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" ht="28" spans="1:3">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" ht="28" spans="1:3">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" ht="42" spans="1:3">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1979,7 +1988,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" ht="28" spans="1:3">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2012,7 +2021,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" ht="42" spans="1:3">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" ht="28" spans="1:3">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2098,6 +2107,17 @@
       </c>
       <c r="C66" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
